--- a/templates/組長作業區-派單狀態.xlsx
+++ b/templates/組長作業區-派單狀態.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>進口日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -54,39 +54,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>${table:data.CO_NAME}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.OL_COUNTRY}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>報機單狀態</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷艙單狀態</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>派送單狀態</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.W2_STATUS}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.W3_STATUS}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.W1_STATUS}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>報機日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>${table:data.OL_IMPORTDT_EX}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.CO_NAME}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.OL_COUNTRY}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>報機單狀態</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>銷艙單狀態</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>派送單狀態</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.W2_STATUS}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.W3_STATUS}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.W1_STATUS}</t>
+    <t>報機單袋數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉貨袋數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷倉單袋數</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改單人員</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.OL_COUNT}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.OL_PULL_COUNT}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.OL_FLL_COUNT}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.W2_PRINCIPAL}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.OL_REAL_IMPORTDT_EX}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -475,76 +515,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="8" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="5" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="12" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="33">
+    <row r="1" spans="1:13" s="4" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="C1">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$5:$B$62731,B1)+COUNTIF($B$1:$B$4,B1)&gt;1,NOT(ISBLANK(B1)))</formula>
+      <formula>AND(COUNTIF($C$5:$C$62731,C1)+COUNTIF($C$1:$C$4,C1)&gt;1,NOT(ISBLANK(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
